--- a/out.xlsx
+++ b/out.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="剧场、品牌服装店、快餐店、星级酒店、潘多拉" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -206,12 +207,142 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="3048000" cy="742950"/>
     <pic>
       <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
         <cNvPr id="4" name="Image 4" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
@@ -242,6 +373,256 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="3048000" cy="742950"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -560,6 +941,11 @@
   <sheetData>
     <row r="1" ht="60" customHeight="1"/>
     <row r="2" ht="60" customHeight="1"/>
+    <row r="3" ht="60" customHeight="1"/>
+    <row r="4" ht="60" customHeight="1"/>
+    <row r="5" ht="60" customHeight="1"/>
+    <row r="6" ht="60" customHeight="1"/>
+    <row r="7" ht="60" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -567,6 +953,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="60" customHeight="1"/>
+    <row r="2" ht="60" customHeight="1"/>
+    <row r="3" ht="60" customHeight="1"/>
+    <row r="4" ht="60" customHeight="1"/>
+    <row r="5" ht="60" customHeight="1"/>
+    <row r="6" ht="60" customHeight="1"/>
+    <row r="7" ht="60" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
